--- a/src/main/java/com/example/PruebaCRUD/grupos_ESCOM.xlsx
+++ b/src/main/java/com/example/PruebaCRUD/grupos_ESCOM.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alfre\OneDrive\Documentos\Semestres ESCOM\Semestre 7 - ESCOM\Control-Acceso\Programas\SpringBoot-Java\src\main\java\com\example\PruebaCRUD\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5751E71-5F41-463F-94E7-21C794C96235}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADC89542-9ADD-4FEE-BFBC-1A596EBDEAAF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12105" xr2:uid="{C2E9D6F7-9EB6-5048-BE23-0181DDD0E157}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12105" activeTab="1" xr2:uid="{C2E9D6F7-9EB6-5048-BE23-0181DDD0E157}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="426" uniqueCount="227">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="427" uniqueCount="227">
   <si>
     <t>Boleta</t>
   </si>
@@ -1105,8 +1105,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{229E4F30-96FB-2146-BEE0-A03B8B16FF49}">
   <dimension ref="A1:H27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K21" sqref="K21"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G30" sqref="G30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15"/>
@@ -1831,8 +1831,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98534562-AC4B-244A-A57F-3BC18AA9C42E}">
   <dimension ref="A1:H11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15"/>
@@ -1991,6 +1991,9 @@
       <c r="E6" s="2" t="s">
         <v>32</v>
       </c>
+      <c r="F6" s="2" t="s">
+        <v>69</v>
+      </c>
       <c r="G6" s="2" t="s">
         <v>225</v>
       </c>
@@ -2138,7 +2141,7 @@
   <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H2" sqref="H2:H6"/>
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15"/>
@@ -2317,7 +2320,7 @@
   <dimension ref="A1:H26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G30" sqref="G30"/>
+      <selection activeCell="F10" sqref="F10:F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15"/>
@@ -3010,12 +3013,14 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="dcba946b-1e56-43c3-ba83-7d0b5c0830eb">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="7dc027c4-69c3-486d-8dac-5c643ba62fa0" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3214,20 +3219,21 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="dcba946b-1e56-43c3-ba83-7d0b5c0830eb">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="7dc027c4-69c3-486d-8dac-5c643ba62fa0" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D592D51E-05C2-446D-A236-0D92EE0ED833}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D288AF6C-10A4-4C12-B6A3-B6A78DD62184}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="dcba946b-1e56-43c3-ba83-7d0b5c0830eb"/>
+    <ds:schemaRef ds:uri="7dc027c4-69c3-486d-8dac-5c643ba62fa0"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -3252,12 +3258,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D288AF6C-10A4-4C12-B6A3-B6A78DD62184}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D592D51E-05C2-446D-A236-0D92EE0ED833}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="dcba946b-1e56-43c3-ba83-7d0b5c0830eb"/>
-    <ds:schemaRef ds:uri="7dc027c4-69c3-486d-8dac-5c643ba62fa0"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/src/main/java/com/example/PruebaCRUD/grupos_ESCOM.xlsx
+++ b/src/main/java/com/example/PruebaCRUD/grupos_ESCOM.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20416"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20417"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alfre\OneDrive\Documentos\Semestres ESCOM\Semestre 7 - ESCOM\Control-Acceso\Programas\SpringBoot-Java\src\main\java\com\example\PruebaCRUD\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADC89542-9ADD-4FEE-BFBC-1A596EBDEAAF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0893A8C5-1660-4F81-958B-BB390AB1430E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12105" activeTab="1" xr2:uid="{C2E9D6F7-9EB6-5048-BE23-0181DDD0E157}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="427" uniqueCount="227">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="434" uniqueCount="233">
   <si>
     <t>Boleta</t>
   </si>
@@ -709,13 +709,31 @@
   </si>
   <si>
     <t>ISC-2020</t>
+  </si>
+  <si>
+    <t>JOSÉ ALFREDO</t>
+  </si>
+  <si>
+    <t>JIMÉNEZ</t>
+  </si>
+  <si>
+    <t>RODRÍGUEZ</t>
+  </si>
+  <si>
+    <t>alfredomxzony@gmaill.com</t>
+  </si>
+  <si>
+    <t>IIA-2020</t>
+  </si>
+  <si>
+    <t>JIRA031216HMCMDLA0</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -743,6 +761,14 @@
       <name val="Aptos Narrow"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -761,16 +787,19 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1829,10 +1858,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98534562-AC4B-244A-A57F-3BC18AA9C42E}">
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15"/>
@@ -2131,7 +2160,36 @@
         <v>135</v>
       </c>
     </row>
+    <row r="12" spans="1:8">
+      <c r="A12" s="2">
+        <v>2022630467</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="C12" t="s">
+        <v>228</v>
+      </c>
+      <c r="D12" t="s">
+        <v>229</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>230</v>
+      </c>
+      <c r="F12" t="s">
+        <v>68</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="H12" t="s">
+        <v>232</v>
+      </c>
+    </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="E12" r:id="rId1" xr:uid="{CB61461D-0A1F-4C50-9A86-B910FD236EB5}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -3013,14 +3071,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="dcba946b-1e56-43c3-ba83-7d0b5c0830eb">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="7dc027c4-69c3-486d-8dac-5c643ba62fa0" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3219,21 +3275,20 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="dcba946b-1e56-43c3-ba83-7d0b5c0830eb">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="7dc027c4-69c3-486d-8dac-5c643ba62fa0" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D288AF6C-10A4-4C12-B6A3-B6A78DD62184}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D592D51E-05C2-446D-A236-0D92EE0ED833}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="dcba946b-1e56-43c3-ba83-7d0b5c0830eb"/>
-    <ds:schemaRef ds:uri="7dc027c4-69c3-486d-8dac-5c643ba62fa0"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -3258,9 +3313,12 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D592D51E-05C2-446D-A236-0D92EE0ED833}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D288AF6C-10A4-4C12-B6A3-B6A78DD62184}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="dcba946b-1e56-43c3-ba83-7d0b5c0830eb"/>
+    <ds:schemaRef ds:uri="7dc027c4-69c3-486d-8dac-5c643ba62fa0"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/src/main/java/com/example/PruebaCRUD/grupos_ESCOM.xlsx
+++ b/src/main/java/com/example/PruebaCRUD/grupos_ESCOM.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alfre\OneDrive\Documentos\Semestres ESCOM\Semestre 7 - ESCOM\Control-Acceso\Programas\SpringBoot-Java\src\main\java\com\example\PruebaCRUD\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0893A8C5-1660-4F81-958B-BB390AB1430E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88B577F5-BCE3-42E1-82EC-3E7D9A8A1544}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12105" activeTab="1" xr2:uid="{C2E9D6F7-9EB6-5048-BE23-0181DDD0E157}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12105" activeTab="3" xr2:uid="{C2E9D6F7-9EB6-5048-BE23-0181DDD0E157}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1132,10 +1132,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{229E4F30-96FB-2146-BEE0-A03B8B16FF49}">
-  <dimension ref="A1:H27"/>
+  <dimension ref="A1:H39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G30" sqref="G30"/>
+      <selection activeCell="C40" sqref="C40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15"/>
@@ -1850,6 +1850,16 @@
         <v>125</v>
       </c>
     </row>
+    <row r="38" spans="3:3">
+      <c r="C38">
+        <v>2022630147</v>
+      </c>
+    </row>
+    <row r="39" spans="3:3">
+      <c r="C39">
+        <v>2024630445</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -1860,7 +1870,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98534562-AC4B-244A-A57F-3BC18AA9C42E}">
   <dimension ref="A1:H12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
@@ -2377,8 +2387,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{65FB40E8-2696-B44B-9363-8A04EE70803A}">
   <dimension ref="A1:H26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F10" sqref="F10:F17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15"/>
@@ -3071,12 +3081,14 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="dcba946b-1e56-43c3-ba83-7d0b5c0830eb">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="7dc027c4-69c3-486d-8dac-5c643ba62fa0" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3275,20 +3287,21 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="dcba946b-1e56-43c3-ba83-7d0b5c0830eb">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="7dc027c4-69c3-486d-8dac-5c643ba62fa0" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D592D51E-05C2-446D-A236-0D92EE0ED833}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D288AF6C-10A4-4C12-B6A3-B6A78DD62184}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="dcba946b-1e56-43c3-ba83-7d0b5c0830eb"/>
+    <ds:schemaRef ds:uri="7dc027c4-69c3-486d-8dac-5c643ba62fa0"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -3313,12 +3326,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D288AF6C-10A4-4C12-B6A3-B6A78DD62184}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D592D51E-05C2-446D-A236-0D92EE0ED833}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="dcba946b-1e56-43c3-ba83-7d0b5c0830eb"/>
-    <ds:schemaRef ds:uri="7dc027c4-69c3-486d-8dac-5c643ba62fa0"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>